--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -736,10 +748,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -783,28 +795,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -829,28 +841,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +979,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1026,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1072,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1140,10 +1152,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1187,28 +1199,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1233,28 +1245,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1313,10 +1325,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1360,28 +1372,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1406,28 +1418,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1515,10 +1527,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1562,28 +1574,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1608,28 +1620,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1891,10 +1903,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1938,28 +1950,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1984,28 +1996,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2267,10 +2279,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2314,28 +2326,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2360,28 +2372,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2440,10 +2452,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2487,28 +2499,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2533,28 +2545,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2642,10 +2654,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2689,28 +2701,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2735,28 +2747,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2815,10 +2827,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2862,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2908,28 +2920,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3161,10 +3173,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3208,28 +3220,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3254,28 +3266,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3375,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3468,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3536,10 +3548,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3583,28 +3595,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3629,28 +3641,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3882,10 +3894,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3929,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3975,28 +3987,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4055,10 +4067,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4102,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4148,28 +4160,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4228,10 +4240,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4275,28 +4287,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4321,28 +4333,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4401,10 +4413,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4448,28 +4460,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4494,28 +4506,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4574,10 +4586,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4621,28 +4633,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4667,28 +4679,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4747,10 +4759,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4794,28 +4806,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4840,28 +4852,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4920,10 +4932,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4967,28 +4979,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5013,28 +5025,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5093,10 +5105,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5140,28 +5152,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5186,28 +5198,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5266,10 +5278,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5313,28 +5325,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5359,28 +5371,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5439,10 +5451,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5486,28 +5498,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5532,28 +5544,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5699,10 +5711,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5746,28 +5758,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5792,28 +5804,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5872,10 +5884,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5919,28 +5931,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5965,28 +5977,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6161,10 +6173,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6208,28 +6220,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6254,28 +6266,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6334,10 +6346,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6381,28 +6393,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6427,28 +6439,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6507,10 +6519,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6554,28 +6566,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6600,28 +6612,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6680,10 +6692,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6727,28 +6739,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6773,28 +6785,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6853,10 +6865,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6900,28 +6912,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6946,28 +6958,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7026,10 +7038,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7073,28 +7085,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7119,28 +7131,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7199,10 +7211,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7246,28 +7258,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7292,28 +7304,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7459,10 +7471,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7506,28 +7518,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7552,28 +7564,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7632,10 +7644,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7679,28 +7691,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7725,28 +7737,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7805,10 +7817,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7852,28 +7864,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7898,28 +7910,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8036,10 +8048,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8083,28 +8095,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8129,28 +8141,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8267,10 +8279,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8314,28 +8326,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8360,28 +8372,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8469,10 +8481,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8516,28 +8528,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8562,28 +8574,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8642,10 +8654,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8689,28 +8701,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8735,28 +8747,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8873,10 +8885,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8920,28 +8932,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8966,28 +8978,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9104,10 +9116,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9151,28 +9163,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9197,28 +9209,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9306,10 +9318,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9353,28 +9365,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9399,28 +9411,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9508,10 +9520,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9555,28 +9567,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9601,28 +9613,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9739,10 +9751,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9786,28 +9798,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9832,28 +9844,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9912,10 +9924,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9959,28 +9971,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10005,28 +10017,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10114,10 +10126,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10161,28 +10173,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10207,28 +10219,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10287,10 +10299,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="2" t="s">
+      <c r="J352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10334,28 +10346,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="2">
+      <c r="A354" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="2">
+      <c r="C354" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10380,28 +10392,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="2">
+      <c r="C356" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="2">
+      <c r="D356" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="2">
+      <c r="I356" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10460,10 +10472,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10507,28 +10519,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10553,28 +10565,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10662,10 +10674,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10709,28 +10721,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10755,28 +10767,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10835,10 +10847,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
